--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS139_VerMaintenancePKS.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS139_VerMaintenancePKS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK_Merge\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6DFB8F-62EF-459D-8E65-61E777E50FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADA489B-B02D-4E55-89D1-36503AAAF7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>RUN</t>
   </si>
@@ -126,29 +126,26 @@
   </si>
   <si>
     <t>Proses Verifikasi Maintenance PKS berhasil Disetujui</t>
+  </si>
+  <si>
+    <t>KEP-012 Disetujui</t>
   </si>
   <si>
     <t>Username : 31816;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
-No Register : M03220800000024;
+No Register : M03220900000003;
 Status Verifikasi : 1 : Setuju;
 Keterangan : KEP-012 Disetujui</t>
   </si>
   <si>
-    <t>M03220800000024</t>
-  </si>
-  <si>
-    <t>KEP-012 Disetujui</t>
-  </si>
-  <si>
-    <t>M03220800000029</t>
+    <t>M03220900000003</t>
   </si>
   <si>
     <t>Username : 31816;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
-No Register : M03220800000029;
+No Register : M03220900000003;
 Status Verifikasi : 0 : Kembalikan ke Register;
 Keterangan : KEP-012</t>
   </si>
@@ -542,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +643,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3">
         <v>31816</v>
@@ -670,7 +667,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -713,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C189252-B4AE-4E49-99F6-0F1F900078DB}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +812,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3">
         <v>31816</v>
@@ -839,7 +836,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -847,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>24</v>
